--- a/Ifood-Original.xlsx
+++ b/Ifood-Original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Ciencia-dos-Dados2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C7469A-3270-4C04-BC92-A972EFD6DEE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1B417C-1A2D-4EC0-AD9F-9A84FBC3F05F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1560,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1783,7 +1783,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1815,7 +1815,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1863,7 +1863,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1967,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2167,7 +2167,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -2351,7 +2351,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -2367,7 +2367,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -2383,7 +2383,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -2455,7 +2455,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -2463,7 +2463,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -2863,7 +2863,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -2903,7 +2903,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3071,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -3175,7 +3175,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +3231,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,7 +3247,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -3255,7 +3255,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -3303,7 +3303,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -3311,7 +3311,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +3391,7 @@
         <v>224</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -3503,7 +3503,7 @@
         <v>238</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3559,7 @@
         <v>244</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3607,7 @@
         <v>250</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -3711,7 +3711,7 @@
         <v>263</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -3775,7 +3775,7 @@
         <v>271</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -3959,7 +3959,7 @@
         <v>294</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -3975,7 +3975,7 @@
         <v>296</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -3983,7 +3983,7 @@
         <v>297</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
